--- a/exercisesLifeContingencies/lifeInsurance/makeham.xlsx
+++ b/exercisesLifeContingencies/lifeInsurance/makeham.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
